--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,37 @@
         <v>3.25</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cool Kids Scholarship</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -40,7 +40,7 @@
     <t>Test One</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -64,7 +64,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -78,6 +78,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -100,38 +107,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -464,7 +464,7 @@
     <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>

--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,35 +476,56 @@
           <t>Test One</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8000</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
+      <c r="E2" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cool Kids Club</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Computer Science and Engineering</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.95</v>
       </c>
     </row>
   </sheetData>

--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test One</t>
+          <t>t13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Computer Science and Engineering</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cool Kids Club</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11111111</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Computer Science and Engineering</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>36</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>SAT Math</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SAT Reading</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SAT Combined</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>GPA</t>
         </is>
@@ -473,28 +483,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t13</t>
+          <t>Test One</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G2" t="n">
+        <v>400</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cool Kids Club</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Computer Science and Engineering</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n">
+        <v>800</v>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -541,7 +541,7 @@
         <v>800</v>
       </c>
       <c r="G3" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="H3" t="n">
         <v>1600</v>

--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>GPA</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HS Percentile</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,11 +517,14 @@
       <c r="I2" t="n">
         <v>4</v>
       </c>
+      <c r="J2" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cool Kids Club</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -526,7 +534,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11111111</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,19 +543,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>RAI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Admit Score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Major</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ACT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ACT Math</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ACT English</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ACT Composite</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SAT Math</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>SAT Reading</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>SAT Combined</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>GPA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>HS Percentile</t>
         </is>
@@ -497,68 +517,92 @@
       <c r="C2" t="n">
         <v>8000</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
+      <c r="D2" t="n">
+        <v>315</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2" t="n">
         <v>600</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>400</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>1000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Test Two</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Computer Science and Engineering</t>
-        </is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>330</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>31</v>
+        <v>700</v>
+      </c>
+      <c r="K3" t="n">
+        <v>620</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1320</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/scholarships/scholarships.xlsx
+++ b/scholarships/scholarships.xlsx
@@ -602,7 +602,7 @@
         <v>3.8</v>
       </c>
       <c r="N3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
